--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\db-reset-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\db-update-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A513FE-40DB-4712-A9A9-75F2655324EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F816CDF-5862-4CC2-87A7-913F92C38391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -382,19 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -421,8 +422,9 @@
       <c r="D2" s="1">
         <v>43711</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,8 +437,9 @@
       <c r="D3" s="1">
         <v>43714</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -449,8 +452,9 @@
       <c r="D4" s="1">
         <v>43717</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,39 +467,56 @@
       <c r="D5" s="1">
         <v>43717</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43717</v>
+      </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
